--- a/src/main/java/algstudent/s2/lab2.UO277172.xlsx
+++ b/src/main/java/algstudent/s2/lab2.UO277172.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simplemente -V-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\git\algorithmicsRicoIglesiasMateoUO277172\src\main\java\algstudent\s2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955BDBAA-DFC8-40A5-9B54-1D3F23882526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA2DFE-D83C-44FA-B116-21B0868B2E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
   <si>
     <t>n</t>
   </si>
@@ -98,21 +100,9 @@
     <t>working as expected</t>
   </si>
   <si>
-    <t>In the case of Quicksort by using the central element I used 500 repetitions for every case</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
-    <t>and the times obtained are another time similar to the obtained on the theoretical</t>
-  </si>
-  <si>
-    <t>case. So we can assume that the results obtained makes sense regarding the theoretical</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
     <t>On the case of Selection the repetitions used for all the cases</t>
   </si>
   <si>
@@ -131,12 +121,6 @@
     <t>no so much so I suppose it's because the pc was executing other</t>
   </si>
   <si>
-    <t>proccess at the same time which affect the performance a little bit.</t>
-  </si>
-  <si>
-    <t>Despite of this I think we can say that the results make sense</t>
-  </si>
-  <si>
     <t>regarding to the obtained in the theoretical values.</t>
   </si>
   <si>
@@ -180,6 +164,36 @@
   </si>
   <si>
     <t>ACTIVITY 2: QuicksortFateful</t>
+  </si>
+  <si>
+    <t>In that case we are using as a pivot always the element in the first position, it works well when we use it in a random array of elements but it works bad when we use it in sorted and inverse</t>
+  </si>
+  <si>
+    <t>because we are choosing bad pivots, that are the biggest and the smallest number. So we can conclude that this algorithm works only well with random numbers when the first random number</t>
+  </si>
+  <si>
+    <t>is a good pivot and not the biggest or the smallest number in the array</t>
+  </si>
+  <si>
+    <t>In the case of Quicksort by using the central element I used 500</t>
+  </si>
+  <si>
+    <t>repetitions for every case and the times obtained are another</t>
+  </si>
+  <si>
+    <t>time similar to the obtained on the theoretical case. So we can</t>
+  </si>
+  <si>
+    <t>assume that the results obtained makes sense regarding the</t>
+  </si>
+  <si>
+    <t>theoretical values</t>
+  </si>
+  <si>
+    <t>proccess at the same time which affect the performance a little</t>
+  </si>
+  <si>
+    <t>bit. Despite of this I think we can say that the results make sense</t>
   </si>
 </sst>
 </file>
@@ -242,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -265,11 +279,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,13 +380,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,40 +675,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AL74"/>
+  <dimension ref="B1:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL1" s="9" t="s">
-        <v>22</v>
+      <c r="AL1" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL2" s="9" t="s">
-        <v>22</v>
+      <c r="AL2" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>22</v>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL4" s="9" t="s">
-        <v>22</v>
+      <c r="AL4" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL5" s="9" t="s">
-        <v>22</v>
+      <c r="AL5" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.25">
@@ -616,11 +723,8 @@
       <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>22</v>
+      <c r="AL6" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
@@ -648,20 +752,8 @@
       <c r="P7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="9" t="s">
-        <v>22</v>
+      <c r="AL7" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.25">
@@ -677,9 +769,13 @@
       <c r="E8" s="6">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="16"/>
       <c r="M8" s="2">
         <v>10000</v>
       </c>
@@ -692,26 +788,16 @@
       <c r="P8" s="6">
         <v>84</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>62</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>112</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>283</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>22</v>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="16"/>
+      <c r="AL8" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.25">
@@ -728,9 +814,10 @@
       <c r="E9" s="6">
         <v>134</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="K9" s="17"/>
       <c r="M9" s="2">
         <f>M8*2</f>
         <v>20000</v>
@@ -744,27 +831,12 @@
       <c r="P9" s="6">
         <v>416</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="2">
-        <f>X8*2</f>
-        <v>20000</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>110</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>172</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>578</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL9" s="9" t="s">
-        <v>22</v>
+      <c r="W9" s="17"/>
+      <c r="AL9" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.25">
@@ -781,9 +853,10 @@
       <c r="E10" s="6">
         <v>131</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="K10" s="17"/>
       <c r="M10" s="2">
         <f t="shared" ref="M10:M15" si="1">M9*2</f>
         <v>40000</v>
@@ -797,27 +870,12 @@
       <c r="P10" s="6">
         <v>1760</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="X10" s="2">
-        <f t="shared" ref="X10:X15" si="2">X9*2</f>
-        <v>40000</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>247</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>380</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>1241</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL10" s="9" t="s">
-        <v>22</v>
+      <c r="W10" s="17"/>
+      <c r="AL10" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.25">
@@ -834,9 +892,10 @@
       <c r="E11" s="6">
         <v>500</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="K11" s="17"/>
       <c r="M11" s="2">
         <f t="shared" si="1"/>
         <v>80000</v>
@@ -850,27 +909,12 @@
       <c r="P11" s="6">
         <v>7027</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X11" s="2">
-        <f t="shared" si="2"/>
-        <v>80000</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>485</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>845</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>2614</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL11" s="9" t="s">
-        <v>22</v>
+      <c r="W11" s="17"/>
+      <c r="AL11" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
@@ -887,9 +931,13 @@
       <c r="E12" s="6">
         <v>2118</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="18"/>
       <c r="M12" s="2">
         <f t="shared" si="1"/>
         <v>160000</v>
@@ -903,24 +951,16 @@
       <c r="P12" s="6">
         <v>28272</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="2">
-        <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>1057</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>1753</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>5510</v>
-      </c>
-      <c r="AL12" s="9" t="s">
-        <v>22</v>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="18"/>
+      <c r="AL12" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
@@ -950,21 +990,8 @@
       <c r="P13" s="6">
         <v>113200</v>
       </c>
-      <c r="X13" s="2">
-        <f t="shared" si="2"/>
-        <v>320000</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>2079</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>3780</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>11580</v>
-      </c>
-      <c r="AL13" s="9" t="s">
-        <v>22</v>
+      <c r="AL13" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
@@ -994,21 +1021,8 @@
       <c r="P14" s="6">
         <v>451513</v>
       </c>
-      <c r="X14" s="2">
-        <f t="shared" si="2"/>
-        <v>640000</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>4619</v>
-      </c>
-      <c r="Z14" s="6">
-        <v>7829</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>24345</v>
-      </c>
-      <c r="AL14" s="9" t="s">
-        <v>22</v>
+      <c r="AL14" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
@@ -1038,31 +1052,18 @@
       <c r="P15" s="6">
         <v>1801721</v>
       </c>
-      <c r="X15" s="2">
-        <f t="shared" si="2"/>
-        <v>1280000</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>9122</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>16695</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>50906</v>
-      </c>
-      <c r="AL15" s="9" t="s">
-        <v>22</v>
+      <c r="AL15" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL16" s="9" t="s">
-        <v>22</v>
+      <c r="AL16" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL17" s="9" t="s">
-        <v>22</v>
+      <c r="AL17" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
@@ -1090,20 +1091,8 @@
       <c r="P18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X18" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL18" s="9" t="s">
-        <v>22</v>
+      <c r="AL18" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
@@ -1116,7 +1105,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:D25" si="3">(B9^2/B8^2)*D8</f>
+        <f t="shared" ref="D19:D25" si="2">(B9^2/B8^2)*D8</f>
         <v>172</v>
       </c>
       <c r="E19" s="6">
@@ -1139,362 +1128,250 @@
         <f>(M9^2/M8^2)*P8</f>
         <v>336</v>
       </c>
-      <c r="X19" s="2">
-        <f>X18*2</f>
-        <v>20000</v>
-      </c>
-      <c r="Y19" s="6">
-        <f>(X9/X8)*Y8</f>
-        <v>124</v>
-      </c>
-      <c r="Z19" s="6">
-        <f>(X9/X8)*Z8</f>
-        <v>224</v>
-      </c>
-      <c r="AA19" s="6">
-        <f>(X9/X8)*AA8</f>
-        <v>566</v>
-      </c>
-      <c r="AL19" s="9" t="s">
-        <v>22</v>
+      <c r="AL19" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <f t="shared" ref="B20:B25" si="4">B19*2</f>
+        <f t="shared" ref="B20:B25" si="3">B19*2</f>
         <v>40000</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:C25" si="5">(B10^2/B9^2)*C9</f>
+        <f t="shared" ref="C20:C25" si="4">(B10^2/B9^2)*C9</f>
         <v>20</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>660</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" ref="E20:E25" si="6">(B10^2/B9^2)*E9</f>
+        <f t="shared" ref="E20:E25" si="5">(B10^2/B9^2)*E9</f>
         <v>536</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" ref="M20:M25" si="7">M19*2</f>
+        <f t="shared" ref="M20:M25" si="6">M19*2</f>
         <v>40000</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20:N25" si="8">(M10^2/M9^2)*N9</f>
+        <f t="shared" ref="N20:N25" si="7">(M10^2/M9^2)*N9</f>
         <v>140</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20:O25" si="9">(M10^2/M9^2)*O9</f>
+        <f t="shared" ref="O20:O25" si="8">(M10^2/M9^2)*O9</f>
         <v>436</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20:P25" si="10">(M10^2/M9^2)*P9</f>
+        <f t="shared" ref="P20:P25" si="9">(M10^2/M9^2)*P9</f>
         <v>1664</v>
       </c>
-      <c r="X20" s="2">
-        <f t="shared" ref="X20:X25" si="11">X19*2</f>
-        <v>40000</v>
-      </c>
-      <c r="Y20" s="6">
-        <f t="shared" ref="Y20:Y25" si="12">(X10/X9)*Y9</f>
-        <v>220</v>
-      </c>
-      <c r="Z20" s="6">
-        <f t="shared" ref="Z20:Z25" si="13">(X10/X9)*Z9</f>
-        <v>344</v>
-      </c>
-      <c r="AA20" s="6">
-        <f t="shared" ref="AA20:AA25" si="14">(X10/X9)*AA9</f>
-        <v>1156</v>
-      </c>
-      <c r="AL20" s="9" t="s">
-        <v>22</v>
+      <c r="AL20" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+      <c r="C21" s="6">
         <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="2"/>
+        <v>852</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="5"/>
+        <v>524</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="6"/>
         <v>80000</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="3"/>
-        <v>852</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="6"/>
-        <v>524</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="N21" s="6">
         <f t="shared" si="7"/>
-        <v>80000</v>
-      </c>
-      <c r="N21" s="6">
+        <v>528</v>
+      </c>
+      <c r="O21" s="6">
         <f t="shared" si="8"/>
-        <v>528</v>
-      </c>
-      <c r="O21" s="6">
+        <v>1808</v>
+      </c>
+      <c r="P21" s="6">
         <f t="shared" si="9"/>
-        <v>1808</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="10"/>
         <v>7040</v>
       </c>
-      <c r="X21" s="2">
-        <f t="shared" si="11"/>
-        <v>80000</v>
-      </c>
-      <c r="Y21" s="6">
-        <f t="shared" si="12"/>
-        <v>494</v>
-      </c>
-      <c r="Z21" s="6">
-        <f t="shared" si="13"/>
-        <v>760</v>
-      </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="14"/>
-        <v>2482</v>
-      </c>
-      <c r="AL21" s="9" t="s">
-        <v>22</v>
+      <c r="AL21" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
+        <f t="shared" si="3"/>
+        <v>160000</v>
+      </c>
+      <c r="C22" s="6">
         <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="2"/>
+        <v>3408</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="6"/>
         <v>160000</v>
       </c>
-      <c r="C22" s="6">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="3"/>
-        <v>3408</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="6"/>
+      <c r="N22" s="6">
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="M22" s="2">
-        <f t="shared" si="7"/>
-        <v>160000</v>
-      </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <f t="shared" si="8"/>
-        <v>2000</v>
-      </c>
-      <c r="O22" s="6">
+        <v>6976</v>
+      </c>
+      <c r="P22" s="6">
         <f t="shared" si="9"/>
-        <v>6976</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="10"/>
         <v>28108</v>
       </c>
-      <c r="X22" s="2">
-        <f t="shared" si="11"/>
-        <v>160000</v>
-      </c>
-      <c r="Y22" s="6">
-        <f t="shared" si="12"/>
-        <v>970</v>
-      </c>
-      <c r="Z22" s="6">
-        <f t="shared" si="13"/>
-        <v>1690</v>
-      </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="14"/>
-        <v>5228</v>
-      </c>
-      <c r="AL22" s="9" t="s">
-        <v>22</v>
+      <c r="AL22" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
+        <f t="shared" si="3"/>
+        <v>320000</v>
+      </c>
+      <c r="C23" s="6">
         <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="2"/>
+        <v>13628</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="5"/>
+        <v>8472</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="6"/>
         <v>320000</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" si="5"/>
-        <v>232</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="3"/>
-        <v>13628</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="6"/>
-        <v>8472</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="N23" s="6">
         <f t="shared" si="7"/>
-        <v>320000</v>
-      </c>
-      <c r="N23" s="6">
+        <v>7936</v>
+      </c>
+      <c r="O23" s="6">
         <f t="shared" si="8"/>
-        <v>7936</v>
-      </c>
-      <c r="O23" s="6">
+        <v>27912</v>
+      </c>
+      <c r="P23" s="6">
         <f t="shared" si="9"/>
-        <v>27912</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="10"/>
         <v>113088</v>
       </c>
-      <c r="X23" s="2">
-        <f t="shared" si="11"/>
-        <v>320000</v>
-      </c>
-      <c r="Y23" s="6">
-        <f t="shared" si="12"/>
-        <v>2114</v>
-      </c>
-      <c r="Z23" s="6">
-        <f t="shared" si="13"/>
-        <v>3506</v>
-      </c>
-      <c r="AA23" s="6">
-        <f t="shared" si="14"/>
-        <v>11020</v>
-      </c>
-      <c r="AL23" s="9" t="s">
-        <v>22</v>
+      <c r="AL23" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
+        <f t="shared" si="3"/>
+        <v>640000</v>
+      </c>
+      <c r="C24" s="6">
         <f t="shared" si="4"/>
+        <v>392</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="2"/>
+        <v>54080</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="5"/>
+        <v>35044</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="6"/>
         <v>640000</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="5"/>
-        <v>392</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="3"/>
-        <v>54080</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="6"/>
-        <v>35044</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="N24" s="6">
         <f t="shared" si="7"/>
-        <v>640000</v>
-      </c>
-      <c r="N24" s="6">
+        <v>32280</v>
+      </c>
+      <c r="O24" s="6">
         <f t="shared" si="8"/>
-        <v>32280</v>
-      </c>
-      <c r="O24" s="6">
+        <v>112048</v>
+      </c>
+      <c r="P24" s="6">
         <f t="shared" si="9"/>
-        <v>112048</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" si="10"/>
         <v>452800</v>
       </c>
-      <c r="X24" s="2">
-        <f t="shared" si="11"/>
-        <v>640000</v>
-      </c>
-      <c r="Y24" s="6">
-        <f t="shared" si="12"/>
-        <v>4158</v>
-      </c>
-      <c r="Z24" s="6">
-        <f t="shared" si="13"/>
-        <v>7560</v>
-      </c>
-      <c r="AA24" s="6">
-        <f t="shared" si="14"/>
-        <v>23160</v>
-      </c>
-      <c r="AL24" s="9" t="s">
-        <v>22</v>
+      <c r="AL24" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
+        <f t="shared" si="3"/>
+        <v>1280000</v>
+      </c>
+      <c r="C25" s="6">
         <f t="shared" si="4"/>
+        <v>996</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="2"/>
+        <v>217628</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="5"/>
+        <v>139756</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="6"/>
         <v>1280000</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" si="5"/>
-        <v>996</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="3"/>
-        <v>217628</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="6"/>
-        <v>139756</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="N25" s="6">
         <f t="shared" si="7"/>
-        <v>1280000</v>
-      </c>
-      <c r="N25" s="6">
+        <v>129116</v>
+      </c>
+      <c r="O25" s="6">
         <f t="shared" si="8"/>
-        <v>129116</v>
-      </c>
-      <c r="O25" s="6">
+        <v>447000</v>
+      </c>
+      <c r="P25" s="6">
         <f t="shared" si="9"/>
-        <v>447000</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" si="10"/>
         <v>1806052</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" si="11"/>
-        <v>1280000</v>
-      </c>
-      <c r="Y25" s="6">
-        <f t="shared" si="12"/>
-        <v>9238</v>
-      </c>
-      <c r="Z25" s="6">
-        <f t="shared" si="13"/>
-        <v>15658</v>
-      </c>
-      <c r="AA25" s="6">
-        <f t="shared" si="14"/>
-        <v>48690</v>
-      </c>
-      <c r="AL25" s="9" t="s">
-        <v>22</v>
+      <c r="AL25" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL26" s="9" t="s">
-        <v>22</v>
+      <c r="AL26" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL27" s="9" t="s">
-        <v>22</v>
+      <c r="AL27" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL28" s="9" t="s">
-        <v>22</v>
+      <c r="AL28" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL29" s="9" t="s">
-        <v>22</v>
+      <c r="AL29" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
@@ -1505,11 +1382,8 @@
       <c r="M30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL30" s="9" t="s">
-        <v>22</v>
+      <c r="AL30" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
@@ -1537,20 +1411,8 @@
       <c r="P31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL31" s="9" t="s">
-        <v>22</v>
+      <c r="AL31" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
@@ -1566,9 +1428,13 @@
       <c r="E32" s="6">
         <v>26</v>
       </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
+      <c r="G32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="16"/>
       <c r="M32" s="2">
         <v>10000</v>
       </c>
@@ -1581,26 +1447,16 @@
       <c r="P32" s="6">
         <v>293</v>
       </c>
-      <c r="R32" t="s">
-        <v>35</v>
-      </c>
-      <c r="X32" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Y32" s="6">
-        <v>47</v>
-      </c>
-      <c r="Z32" s="6">
-        <v>74</v>
-      </c>
-      <c r="AA32" s="6">
-        <v>276</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL32" s="9" t="s">
-        <v>22</v>
+      <c r="R32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="16"/>
+      <c r="AL32" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
@@ -1617,9 +1473,10 @@
       <c r="E33" s="6">
         <v>82</v>
       </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
+      <c r="G33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="17"/>
       <c r="M33" s="2">
         <f>M32*2</f>
         <v>20000</v>
@@ -1631,32 +1488,17 @@
       <c r="P33" s="6">
         <v>580</v>
       </c>
-      <c r="R33" t="s">
-        <v>36</v>
-      </c>
-      <c r="X33" s="2">
-        <f>X32*2</f>
-        <v>20000</v>
-      </c>
-      <c r="Y33" s="6">
-        <v>70</v>
-      </c>
-      <c r="Z33" s="6">
-        <v>122</v>
-      </c>
-      <c r="AA33" s="6">
-        <v>578</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL33" s="9" t="s">
-        <v>22</v>
+      <c r="R33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="17"/>
+      <c r="AL33" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <f t="shared" ref="B34:B39" si="15">B33*2</f>
+        <f t="shared" ref="B34:B39" si="10">B33*2</f>
         <v>40000</v>
       </c>
       <c r="C34" s="6">
@@ -1668,11 +1510,12 @@
       <c r="E34" s="6">
         <v>301</v>
       </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
+      <c r="G34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="17"/>
       <c r="M34" s="2">
-        <f t="shared" ref="M34:M39" si="16">M33*2</f>
+        <f t="shared" ref="M34:M39" si="11">M33*2</f>
         <v>40000</v>
       </c>
       <c r="N34" s="6"/>
@@ -1680,32 +1523,17 @@
       <c r="P34" s="6">
         <v>1249</v>
       </c>
-      <c r="R34" t="s">
-        <v>37</v>
-      </c>
-      <c r="X34" s="2">
-        <f t="shared" ref="X34:X39" si="17">X33*2</f>
-        <v>40000</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>155</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>257</v>
-      </c>
-      <c r="AA34" s="6">
-        <v>1219</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL34" s="9" t="s">
-        <v>22</v>
+      <c r="R34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W34" s="17"/>
+      <c r="AL34" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>80000</v>
       </c>
       <c r="C35" s="6">
@@ -1717,11 +1545,12 @@
       <c r="E35" s="6">
         <v>1381</v>
       </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+      <c r="G35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="17"/>
       <c r="M35" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>80000</v>
       </c>
       <c r="N35" s="6"/>
@@ -1729,32 +1558,17 @@
       <c r="P35" s="6">
         <v>2645</v>
       </c>
-      <c r="R35" t="s">
-        <v>38</v>
-      </c>
-      <c r="X35" s="2">
-        <f t="shared" si="17"/>
-        <v>80000</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>345</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>536</v>
-      </c>
-      <c r="AA35" s="6">
-        <v>2559</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL35" s="9" t="s">
-        <v>22</v>
+      <c r="R35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W35" s="17"/>
+      <c r="AL35" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>160000</v>
       </c>
       <c r="C36" s="6">
@@ -1766,11 +1580,12 @@
       <c r="E36" s="6">
         <v>5154</v>
       </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
+      <c r="G36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="17"/>
       <c r="M36" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>160000</v>
       </c>
       <c r="N36" s="6"/>
@@ -1778,32 +1593,17 @@
       <c r="P36" s="6">
         <v>5527</v>
       </c>
-      <c r="R36" t="s">
-        <v>39</v>
-      </c>
-      <c r="X36" s="2">
-        <f t="shared" si="17"/>
-        <v>160000</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>720</v>
-      </c>
-      <c r="Z36" s="6">
-        <v>1141</v>
-      </c>
-      <c r="AA36" s="6">
-        <v>5463</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL36" s="9" t="s">
-        <v>22</v>
+      <c r="R36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W36" s="17"/>
+      <c r="AL36" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>320000</v>
       </c>
       <c r="C37" s="6">
@@ -1815,11 +1615,12 @@
       <c r="E37" s="6">
         <v>20462</v>
       </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+      <c r="G37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="17"/>
       <c r="M37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>320000</v>
       </c>
       <c r="N37" s="6"/>
@@ -1827,29 +1628,17 @@
       <c r="P37" s="6">
         <v>11591</v>
       </c>
-      <c r="R37" t="s">
-        <v>40</v>
-      </c>
-      <c r="X37" s="2">
-        <f t="shared" si="17"/>
-        <v>320000</v>
-      </c>
-      <c r="Y37" s="6">
-        <v>1518</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>2384</v>
-      </c>
-      <c r="AA37" s="6">
-        <v>11454</v>
-      </c>
-      <c r="AL37" s="9" t="s">
-        <v>22</v>
+      <c r="R37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" s="17"/>
+      <c r="AL37" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>640000</v>
       </c>
       <c r="C38" s="6">
@@ -1861,11 +1650,12 @@
       <c r="E38" s="6">
         <v>82087</v>
       </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+      <c r="G38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="17"/>
       <c r="M38" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>640000</v>
       </c>
       <c r="N38" s="6"/>
@@ -1873,29 +1663,21 @@
       <c r="P38" s="6">
         <v>24510</v>
       </c>
-      <c r="R38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X38" s="2">
-        <f t="shared" si="17"/>
-        <v>640000</v>
-      </c>
-      <c r="Y38" s="6">
-        <v>3161</v>
-      </c>
-      <c r="Z38" s="6">
-        <v>5043</v>
-      </c>
-      <c r="AA38" s="6">
-        <v>23960</v>
-      </c>
-      <c r="AL38" s="9" t="s">
-        <v>22</v>
+      <c r="R38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="18"/>
+      <c r="AL38" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>1280000</v>
       </c>
       <c r="C39" s="6">
@@ -1907,11 +1689,12 @@
       <c r="E39" s="6">
         <v>328096</v>
       </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
+      <c r="G39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="17"/>
       <c r="M39" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>1280000</v>
       </c>
       <c r="N39" s="6"/>
@@ -1919,35 +1702,26 @@
       <c r="P39" s="6">
         <v>50797</v>
       </c>
-      <c r="X39" s="2">
-        <f t="shared" si="17"/>
-        <v>1280000</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>6638</v>
-      </c>
-      <c r="Z39" s="6">
-        <v>10409</v>
-      </c>
-      <c r="AA39" s="6">
-        <v>50091</v>
-      </c>
-      <c r="AL39" s="9" t="s">
-        <v>22</v>
+      <c r="AL39" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL40" s="9" t="s">
-        <v>22</v>
+      <c r="G40" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="18"/>
+      <c r="AL40" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL41" s="9" t="s">
-        <v>22</v>
+      <c r="AL41" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.25">
@@ -1975,20 +1749,8 @@
       <c r="P42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X42" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL42" s="9" t="s">
-        <v>22</v>
+      <c r="AL42" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
@@ -1997,15 +1759,15 @@
         <v>20000</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:C49" si="18">(B33^2/B32^2)*C32</f>
+        <f t="shared" ref="C43:C49" si="12">(B33^2/B32^2)*C32</f>
         <v>84</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ref="D43:D49" si="19">(B33^2/B32^2)*D32</f>
+        <f t="shared" ref="D43:D49" si="13">(B33^2/B32^2)*D32</f>
         <v>172</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" ref="E43:E49" si="20">(B33^2/B32^2)*E32</f>
+        <f t="shared" ref="E43:E49" si="14">(B33^2/B32^2)*E32</f>
         <v>104</v>
       </c>
       <c r="M43" s="2">
@@ -2024,45 +1786,29 @@
         <f>(M33/M32)*P32</f>
         <v>586</v>
       </c>
-      <c r="X43" s="2">
-        <f>X42*2</f>
-        <v>20000</v>
-      </c>
-      <c r="Y43" s="6">
-        <f>(X33/X32)*Y32</f>
-        <v>94</v>
-      </c>
-      <c r="Z43" s="6">
-        <f>(X33/X32)*Z32</f>
-        <v>148</v>
-      </c>
-      <c r="AA43" s="6">
-        <f>(X33/X32)*AA32</f>
-        <v>552</v>
-      </c>
-      <c r="AL43" s="9" t="s">
-        <v>22</v>
+      <c r="AL43" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <f t="shared" ref="B44:B49" si="21">B43*2</f>
+        <f t="shared" ref="B44:B49" si="15">B43*2</f>
         <v>40000</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>592</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>328</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" ref="M44:M49" si="22">M43*2</f>
+        <f t="shared" ref="M44:M49" si="16">M43*2</f>
         <v>40000</v>
       </c>
       <c r="N44" s="6">
@@ -2070,424 +1816,881 @@
         <v>37162</v>
       </c>
       <c r="O44" s="6">
-        <f t="shared" ref="O44:O49" si="23">(M34^2/M33^2)*O33</f>
+        <f t="shared" ref="O44:O49" si="17">(M34^2/M33^2)*O33</f>
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" ref="P44:P49" si="24">(M34/M33)*P33</f>
+        <f t="shared" ref="P44:P49" si="18">(M34/M33)*P33</f>
         <v>1160</v>
       </c>
-      <c r="X44" s="2">
-        <f t="shared" ref="X44:X49" si="25">X43*2</f>
-        <v>40000</v>
-      </c>
-      <c r="Y44" s="6">
-        <f t="shared" ref="Y44:Y49" si="26">(X34/X33)*Y33</f>
-        <v>140</v>
-      </c>
-      <c r="Z44" s="6">
-        <f t="shared" ref="Z44:Z49" si="27">(X34/X33)*Z33</f>
-        <v>244</v>
-      </c>
-      <c r="AA44" s="6">
-        <f t="shared" ref="AA44:AA49" si="28">(X34/X33)*AA33</f>
-        <v>1156</v>
-      </c>
-      <c r="AL44" s="9" t="s">
-        <v>22</v>
+      <c r="AL44" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
+        <f t="shared" si="15"/>
+        <v>80000</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="12"/>
+        <v>708</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="13"/>
+        <v>1920</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="14"/>
+        <v>1204</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="16"/>
+        <v>80000</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" ref="N45:N49" si="19">(M35^2/M34^2)*N34</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="18"/>
+        <v>2498</v>
+      </c>
+      <c r="AL45" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <f t="shared" si="15"/>
+        <v>160000</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="12"/>
+        <v>2568</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="13"/>
+        <v>8500</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="14"/>
+        <v>5524</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="16"/>
+        <v>160000</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="18"/>
+        <v>5290</v>
+      </c>
+      <c r="AL46" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <f t="shared" si="15"/>
+        <v>320000</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="12"/>
+        <v>10228</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="13"/>
+        <v>33612</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="14"/>
+        <v>20616</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="16"/>
+        <v>320000</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" si="18"/>
+        <v>11054</v>
+      </c>
+      <c r="AL47" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <f t="shared" si="15"/>
+        <v>640000</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="12"/>
+        <v>41520</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="13"/>
+        <v>133604</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="14"/>
+        <v>81848</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="16"/>
+        <v>640000</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" si="18"/>
+        <v>23182</v>
+      </c>
+      <c r="AL48" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <f t="shared" si="15"/>
+        <v>1280000</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="12"/>
+        <v>169132</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="13"/>
+        <v>535024</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="14"/>
+        <v>328348</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="16"/>
+        <v>1280000</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="18"/>
+        <v>49020</v>
+      </c>
+      <c r="AL49" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL50" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL51" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL52" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL53" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C54" s="6">
+        <v>62</v>
+      </c>
+      <c r="D54" s="6">
+        <v>112</v>
+      </c>
+      <c r="E54" s="6">
+        <v>283</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="16"/>
+      <c r="M54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N54" s="6">
+        <v>47</v>
+      </c>
+      <c r="O54" s="6">
+        <v>74</v>
+      </c>
+      <c r="P54" s="6">
+        <v>276</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="16"/>
+      <c r="AL54" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <f>B54*2</f>
+        <v>20000</v>
+      </c>
+      <c r="C55" s="6">
+        <v>110</v>
+      </c>
+      <c r="D55" s="6">
+        <v>172</v>
+      </c>
+      <c r="E55" s="6">
+        <v>578</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="17"/>
+      <c r="M55" s="2">
+        <f>M54*2</f>
+        <v>20000</v>
+      </c>
+      <c r="N55" s="6">
+        <v>70</v>
+      </c>
+      <c r="O55" s="6">
+        <v>122</v>
+      </c>
+      <c r="P55" s="6">
+        <v>578</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W55" s="17"/>
+      <c r="AL55" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <f t="shared" ref="B56:B61" si="20">B55*2</f>
+        <v>40000</v>
+      </c>
+      <c r="C56" s="6">
+        <v>247</v>
+      </c>
+      <c r="D56" s="6">
+        <v>380</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1241</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" s="17"/>
+      <c r="M56" s="2">
+        <f t="shared" ref="M56:M61" si="21">M55*2</f>
+        <v>40000</v>
+      </c>
+      <c r="N56" s="6">
+        <v>155</v>
+      </c>
+      <c r="O56" s="6">
+        <v>257</v>
+      </c>
+      <c r="P56" s="6">
+        <v>1219</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W56" s="17"/>
+      <c r="AL56" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <f t="shared" si="20"/>
+        <v>80000</v>
+      </c>
+      <c r="C57" s="6">
+        <v>485</v>
+      </c>
+      <c r="D57" s="6">
+        <v>845</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2614</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="17"/>
+      <c r="M57" s="2">
         <f t="shared" si="21"/>
         <v>80000</v>
       </c>
-      <c r="C45" s="5">
-        <f t="shared" si="18"/>
-        <v>708</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" si="19"/>
-        <v>1920</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="N57" s="6">
+        <v>345</v>
+      </c>
+      <c r="O57" s="6">
+        <v>536</v>
+      </c>
+      <c r="P57" s="6">
+        <v>2559</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W57" s="17"/>
+      <c r="AL57" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
         <f t="shared" si="20"/>
-        <v>1204</v>
-      </c>
-      <c r="M45" s="2">
+        <v>160000</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1057</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1753</v>
+      </c>
+      <c r="E58" s="6">
+        <v>5510</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="18"/>
+      <c r="M58" s="2">
+        <f t="shared" si="21"/>
+        <v>160000</v>
+      </c>
+      <c r="N58" s="6">
+        <v>720</v>
+      </c>
+      <c r="O58" s="6">
+        <v>1141</v>
+      </c>
+      <c r="P58" s="6">
+        <v>5463</v>
+      </c>
+      <c r="R58" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="18"/>
+      <c r="AL58" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <f t="shared" si="20"/>
+        <v>320000</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2079</v>
+      </c>
+      <c r="D59" s="6">
+        <v>3780</v>
+      </c>
+      <c r="E59" s="6">
+        <v>11580</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="21"/>
+        <v>320000</v>
+      </c>
+      <c r="N59" s="6">
+        <v>1518</v>
+      </c>
+      <c r="O59" s="6">
+        <v>2384</v>
+      </c>
+      <c r="P59" s="6">
+        <v>11454</v>
+      </c>
+      <c r="AL59" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <f t="shared" si="20"/>
+        <v>640000</v>
+      </c>
+      <c r="C60" s="6">
+        <v>4619</v>
+      </c>
+      <c r="D60" s="6">
+        <v>7829</v>
+      </c>
+      <c r="E60" s="6">
+        <v>24345</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="21"/>
+        <v>640000</v>
+      </c>
+      <c r="N60" s="6">
+        <v>3161</v>
+      </c>
+      <c r="O60" s="6">
+        <v>5043</v>
+      </c>
+      <c r="P60" s="6">
+        <v>23960</v>
+      </c>
+      <c r="AL60" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <f t="shared" si="20"/>
+        <v>1280000</v>
+      </c>
+      <c r="C61" s="6">
+        <v>9122</v>
+      </c>
+      <c r="D61" s="6">
+        <v>16695</v>
+      </c>
+      <c r="E61" s="6">
+        <v>50906</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="21"/>
+        <v>1280000</v>
+      </c>
+      <c r="N61" s="6">
+        <v>6638</v>
+      </c>
+      <c r="O61" s="6">
+        <v>10409</v>
+      </c>
+      <c r="P61" s="6">
+        <v>50091</v>
+      </c>
+      <c r="AL61" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL62" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL63" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M64" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL64" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <f>B64*2</f>
+        <v>20000</v>
+      </c>
+      <c r="C65" s="6">
+        <f>(B55/B54)*C54</f>
+        <v>124</v>
+      </c>
+      <c r="D65" s="6">
+        <f>(B55/B54)*D54</f>
+        <v>224</v>
+      </c>
+      <c r="E65" s="6">
+        <f>(B55/B54)*E54</f>
+        <v>566</v>
+      </c>
+      <c r="M65" s="2">
+        <f>M64*2</f>
+        <v>20000</v>
+      </c>
+      <c r="N65" s="6">
+        <f>(M55/M54)*N54</f>
+        <v>94</v>
+      </c>
+      <c r="O65" s="6">
+        <f>(M55/M54)*O54</f>
+        <v>148</v>
+      </c>
+      <c r="P65" s="6">
+        <f>(M55/M54)*P54</f>
+        <v>552</v>
+      </c>
+      <c r="AL65" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <f t="shared" ref="B66:B71" si="22">B65*2</f>
+        <v>40000</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" ref="C66:C71" si="23">(B56/B55)*C55</f>
+        <v>220</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" ref="D66:D71" si="24">(B56/B55)*D55</f>
+        <v>344</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" ref="E66:E71" si="25">(B56/B55)*E55</f>
+        <v>1156</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" ref="M66:M71" si="26">M65*2</f>
+        <v>40000</v>
+      </c>
+      <c r="N66" s="6">
+        <f t="shared" ref="N66:N71" si="27">(M56/M55)*N55</f>
+        <v>140</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" ref="O66:O71" si="28">(M56/M55)*O55</f>
+        <v>244</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" ref="P66:P71" si="29">(M56/M55)*P55</f>
+        <v>1156</v>
+      </c>
+      <c r="AL66" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
         <f t="shared" si="22"/>
         <v>80000</v>
       </c>
-      <c r="N45" s="6">
-        <f t="shared" ref="N45:N49" si="29">(M35^2/M34^2)*N34</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="6">
+      <c r="C67" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="6">
+        <v>494</v>
+      </c>
+      <c r="D67" s="6">
         <f t="shared" si="24"/>
-        <v>2498</v>
-      </c>
-      <c r="X45" s="2">
+        <v>760</v>
+      </c>
+      <c r="E67" s="6">
         <f t="shared" si="25"/>
+        <v>2482</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" si="26"/>
         <v>80000</v>
       </c>
-      <c r="Y45" s="6">
-        <f t="shared" si="26"/>
+      <c r="N67" s="6">
+        <f t="shared" si="27"/>
         <v>310</v>
       </c>
-      <c r="Z45" s="6">
-        <f t="shared" si="27"/>
+      <c r="O67" s="6">
+        <f t="shared" si="28"/>
         <v>514</v>
       </c>
-      <c r="AA45" s="6">
-        <f t="shared" si="28"/>
+      <c r="P67" s="6">
+        <f t="shared" si="29"/>
         <v>2438</v>
       </c>
-      <c r="AL45" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
-        <f t="shared" si="21"/>
-        <v>160000</v>
-      </c>
-      <c r="C46" s="5">
-        <f t="shared" si="18"/>
-        <v>2568</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="19"/>
-        <v>8500</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" si="20"/>
-        <v>5524</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="AL67" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
         <f t="shared" si="22"/>
         <v>160000</v>
       </c>
-      <c r="N46" s="6">
+      <c r="C68" s="6">
+        <f t="shared" si="23"/>
+        <v>970</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="24"/>
+        <v>1690</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="25"/>
+        <v>5228</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="26"/>
+        <v>160000</v>
+      </c>
+      <c r="N68" s="6">
+        <f t="shared" si="27"/>
+        <v>690</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="28"/>
+        <v>1072</v>
+      </c>
+      <c r="P68" s="6">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="6">
-        <f t="shared" si="24"/>
-        <v>5290</v>
-      </c>
-      <c r="X46" s="2">
-        <f t="shared" si="25"/>
-        <v>160000</v>
-      </c>
-      <c r="Y46" s="6">
-        <f t="shared" si="26"/>
-        <v>690</v>
-      </c>
-      <c r="Z46" s="6">
-        <f t="shared" si="27"/>
-        <v>1072</v>
-      </c>
-      <c r="AA46" s="6">
-        <f t="shared" si="28"/>
         <v>5118</v>
       </c>
-      <c r="AL46" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B47" s="2">
-        <f t="shared" si="21"/>
-        <v>320000</v>
-      </c>
-      <c r="C47" s="5">
-        <f t="shared" si="18"/>
-        <v>10228</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="19"/>
-        <v>33612</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="20"/>
-        <v>20616</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="AL68" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
         <f t="shared" si="22"/>
         <v>320000</v>
       </c>
-      <c r="N47" s="6">
+      <c r="C69" s="6">
+        <f t="shared" si="23"/>
+        <v>2114</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="24"/>
+        <v>3506</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="25"/>
+        <v>11020</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" si="26"/>
+        <v>320000</v>
+      </c>
+      <c r="N69" s="6">
+        <f t="shared" si="27"/>
+        <v>1440</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="28"/>
+        <v>2282</v>
+      </c>
+      <c r="P69" s="6">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="6">
-        <f t="shared" si="24"/>
-        <v>11054</v>
-      </c>
-      <c r="X47" s="2">
-        <f t="shared" si="25"/>
-        <v>320000</v>
-      </c>
-      <c r="Y47" s="6">
-        <f t="shared" si="26"/>
-        <v>1440</v>
-      </c>
-      <c r="Z47" s="6">
-        <f t="shared" si="27"/>
-        <v>2282</v>
-      </c>
-      <c r="AA47" s="6">
-        <f t="shared" si="28"/>
         <v>10926</v>
       </c>
-      <c r="AL47" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B48" s="2">
-        <f t="shared" si="21"/>
-        <v>640000</v>
-      </c>
-      <c r="C48" s="5">
-        <f t="shared" si="18"/>
-        <v>41520</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" si="19"/>
-        <v>133604</v>
-      </c>
-      <c r="E48" s="5">
-        <f t="shared" si="20"/>
-        <v>81848</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="AL69" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
         <f t="shared" si="22"/>
         <v>640000</v>
       </c>
-      <c r="N48" s="6">
+      <c r="C70" s="6">
+        <f t="shared" si="23"/>
+        <v>4158</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="24"/>
+        <v>7560</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="25"/>
+        <v>23160</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="26"/>
+        <v>640000</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" si="27"/>
+        <v>3036</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="28"/>
+        <v>4768</v>
+      </c>
+      <c r="P70" s="6">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="6">
-        <f t="shared" si="24"/>
-        <v>23182</v>
-      </c>
-      <c r="X48" s="2">
-        <f t="shared" si="25"/>
-        <v>640000</v>
-      </c>
-      <c r="Y48" s="6">
-        <f t="shared" si="26"/>
-        <v>3036</v>
-      </c>
-      <c r="Z48" s="6">
-        <f t="shared" si="27"/>
-        <v>4768</v>
-      </c>
-      <c r="AA48" s="6">
-        <f t="shared" si="28"/>
         <v>22908</v>
       </c>
-      <c r="AL48" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B49" s="2">
-        <f t="shared" si="21"/>
-        <v>1280000</v>
-      </c>
-      <c r="C49" s="5">
-        <f t="shared" si="18"/>
-        <v>169132</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="19"/>
-        <v>535024</v>
-      </c>
-      <c r="E49" s="5">
-        <f t="shared" si="20"/>
-        <v>328348</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="AL70" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
         <f t="shared" si="22"/>
         <v>1280000</v>
       </c>
-      <c r="N49" s="6">
+      <c r="C71" s="6">
+        <f t="shared" si="23"/>
+        <v>9238</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" si="24"/>
+        <v>15658</v>
+      </c>
+      <c r="E71" s="6">
+        <f t="shared" si="25"/>
+        <v>48690</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="26"/>
+        <v>1280000</v>
+      </c>
+      <c r="N71" s="6">
+        <f t="shared" si="27"/>
+        <v>6322</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="28"/>
+        <v>10086</v>
+      </c>
+      <c r="P71" s="6">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
-        <f t="shared" si="24"/>
-        <v>49020</v>
-      </c>
-      <c r="X49" s="2">
-        <f t="shared" si="25"/>
-        <v>1280000</v>
-      </c>
-      <c r="Y49" s="6">
-        <f t="shared" si="26"/>
-        <v>6322</v>
-      </c>
-      <c r="Z49" s="6">
-        <f t="shared" si="27"/>
-        <v>10086</v>
-      </c>
-      <c r="AA49" s="6">
-        <f t="shared" si="28"/>
         <v>47920</v>
       </c>
-      <c r="AL49" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL50" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL51" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL52" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL53" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL54" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="2:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B55" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL55" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL56" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL57" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL58" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL59" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL60" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL61" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL62" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL63" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AL64" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL65" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL66" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL67" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL68" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL69" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL70" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL71" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL72" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL73" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL74" s="9" t="s">
-        <v>22</v>
+      <c r="AL71" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL72" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL73" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:38" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B74" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL74" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
